--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.nogueira\source\repos\clock-in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EC\bd\clock-in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061191EF-6EB8-42EE-A0D8-CFF0760FB4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0078FDE9-18CB-4C19-B69A-8B4896F55E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Usuários que bateram o ponto</t>
   </si>
@@ -28,16 +28,49 @@
     <t>Data</t>
   </si>
   <si>
-    <t>aline</t>
-  </si>
-  <si>
-    <t>2023-05-30 19:42:52</t>
-  </si>
-  <si>
     <t>filipe</t>
   </si>
   <si>
-    <t>2023-05-30 20:07:40</t>
+    <t>2023-06-06 18:36:17</t>
+  </si>
+  <si>
+    <t>2023-06-06 18:36:18</t>
+  </si>
+  <si>
+    <t>simone</t>
+  </si>
+  <si>
+    <t>2023-06-06 18:41:01</t>
+  </si>
+  <si>
+    <t>2023-06-06 18:41:07</t>
+  </si>
+  <si>
+    <t>marcio</t>
+  </si>
+  <si>
+    <t>2023-06-06 18:42:52</t>
+  </si>
+  <si>
+    <t>2023-06-06 18:42:59</t>
+  </si>
+  <si>
+    <t>isa</t>
+  </si>
+  <si>
+    <t>2023-06-06 18:50:46</t>
+  </si>
+  <si>
+    <t>2023-06-06 18:50:48</t>
+  </si>
+  <si>
+    <t>gabi</t>
+  </si>
+  <si>
+    <t>2023-06-06 18:51:41</t>
+  </si>
+  <si>
+    <t>2023-06-06 18:51:43</t>
   </si>
 </sst>
 </file>
@@ -157,11 +190,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{085A48F1-B58A-4B0E-862F-F8E3E92EAB76}" name="Tabela1" displayName="Tabela1" ref="A1:B3" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:B3" xr:uid="{085A48F1-B58A-4B0E-862F-F8E3E92EAB76}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8F776048-E274-4A96-946D-C30538DB80A3}" name="Tabela1" displayName="Tabela1" ref="A1:B11" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:B11" xr:uid="{8F776048-E274-4A96-946D-C30538DB80A3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5FFB26B3-6C95-4FF6-9187-35AA227BCBDA}" name="Usuários que bateram o ponto"/>
-    <tableColumn id="2" xr3:uid="{437C8A63-2494-4F16-B9B0-9A3659D23FE5}" name="Data"/>
+    <tableColumn id="1" xr3:uid="{C0AF6863-6424-4170-AEF6-B3AAF47E6D3D}" name="Usuários que bateram o ponto"/>
+    <tableColumn id="2" xr3:uid="{0A1212ED-C6DF-4896-B6C9-1A177D494608}" name="Data"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -452,19 +485,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -480,12 +513,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
